--- a/output/0/tRNA-Val-TAC-1-1.xlsx
+++ b/output/0/tRNA-Val-TAC-1-1.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
   <si>
     <t>chr11</t>
   </si>
   <si>
-    <t>59318104</t>
-  </si>
-  <si>
-    <t>59318127</t>
+    <t>59318462</t>
+  </si>
+  <si>
+    <t>59318485</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>59318124</t>
+    <t>59318482</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -56,22 +56,22 @@
     <t>2</t>
   </si>
   <si>
-    <t>69</t>
+    <t>70</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
   <si>
-    <t>59318106</t>
-  </si>
-  <si>
-    <t>59318129</t>
+    <t>59318464</t>
+  </si>
+  <si>
+    <t>59318487</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>59318109</t>
+    <t>59318467</t>
   </si>
   <si>
     <t>GTCCTGGGTTCGAGCCCCAG</t>
@@ -89,13 +89,13 @@
     <t>20</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>59318121</t>
-  </si>
-  <si>
-    <t>59318144</t>
+    <t>63</t>
+  </si>
+  <si>
+    <t>59318479</t>
+  </si>
+  <si>
+    <t>59318502</t>
   </si>
   <si>
     <t>CTTTACACGCAGAAGGTCCT</t>
@@ -113,13 +113,13 @@
     <t>23</t>
   </si>
   <si>
-    <t>59318122</t>
-  </si>
-  <si>
-    <t>59318145</t>
-  </si>
-  <si>
-    <t>59318125</t>
+    <t>59318480</t>
+  </si>
+  <si>
+    <t>59318503</t>
+  </si>
+  <si>
+    <t>59318483</t>
   </si>
   <si>
     <t>GCTTTACACGCAGAAGGTCC</t>
@@ -137,13 +137,13 @@
     <t>68</t>
   </si>
   <si>
-    <t>59318128</t>
-  </si>
-  <si>
-    <t>59318151</t>
-  </si>
-  <si>
-    <t>59318131</t>
+    <t>59318486</t>
+  </si>
+  <si>
+    <t>59318509</t>
+  </si>
+  <si>
+    <t>59318489</t>
   </si>
   <si>
     <t>ACGTCTGCTTTACACGCAGA</t>
@@ -158,22 +158,7 @@
     <t>24</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>59318147</t>
-  </si>
-  <si>
-    <t>59318170</t>
-  </si>
-  <si>
-    <t>59318167</t>
-  </si>
-  <si>
-    <t>ACGTGATAACCACTACACTA</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -218,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -519,65 +504,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
